--- a/biology/Zoologie/Amaurobius_ferox/Amaurobius_ferox.xlsx
+++ b/biology/Zoologie/Amaurobius_ferox/Amaurobius_ferox.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amaurobius ferox est une espèce d'araignées aranéomorphes de la famille des Amaurobiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amaurobius ferox est une espèce d'araignées aranéomorphes de la famille des Amaurobiidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a une distribution holarctique[1]. Elle est commune en Europe et en Amérique du Nord.
-La femelle pratique un cas exceptionnel de cannibalisme filial inversé, la matriphagie : les juvéniles dévorent leur mère qui s'auto-liquéfie pour offrir protéines et énergie à sa descendance. Des enzymes dissolvent plusieurs tissus, à l'exception de son cœur, ses intestins et surtout ses ovaires qui restent un temps fonctionnels. La femelle garde ainsi pendant une à deux semaines sa capacité de pondre ses œufs au cas où sa couvée se ferait dévorer par un prédateur ou un mâle infanticide[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a une distribution holarctique. Elle est commune en Europe et en Amérique du Nord.
+La femelle pratique un cas exceptionnel de cannibalisme filial inversé, la matriphagie : les juvéniles dévorent leur mère qui s'auto-liquéfie pour offrir protéines et énergie à sa descendance. Des enzymes dissolvent plusieurs tissus, à l'exception de son cœur, ses intestins et surtout ses ovaires qui restent un temps fonctionnels. La femelle garde ainsi pendant une à deux semaines sa capacité de pondre ses œufs au cas où sa couvée se ferait dévorer par un prédateur ou un mâle infanticide.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle mesure 12 millimètres de long et la femelle 16 millimètres de long[3].
-L'espèce est matriphage[4],[5],[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle mesure 12 millimètres de long et la femelle 16 millimètres de long.
+L'espèce est matriphage.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Walckenaer, 1830 : Aranéides. Faune française ou histoire naturelle générale et particulière des animaux qui se trouvent en France, constamment ou passagèrement, à la surface du sol, dans les eaux qui le baignent et dans le littoral des mers qui le bornent par Viellot, Desmarrey, Ducrotoy, Audinet, Lepelletier et Walckenaer. Paris, livr. 26, p. 97-175, livr. 29, p. 177-240.</t>
         </is>
